--- a/NYSE_profit_식품 및 약품소매.xlsx
+++ b/NYSE_profit_식품 및 약품소매.xlsx
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.11134338378906</v>
+        <v>17.03973388671875</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-5.081619262695312</v>
+        <v>-5.081634521484375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
